--- a/Burndown Chart ICQ.xlsx
+++ b/Burndown Chart ICQ.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10965" windowHeight="5010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9045"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="31">
   <si>
     <t>Project</t>
   </si>
@@ -104,13 +109,22 @@
   </si>
   <si>
     <t>Informasi versi ICQ</t>
+  </si>
+  <si>
+    <t>informasi Video Chat, Voice Chat, Call Any Phone Number, Quick Login</t>
+  </si>
+  <si>
+    <t>informasi Social Network, share Photos and Videos, Multi instance Login, Email Notification</t>
+  </si>
+  <si>
+    <t>informasi chat history, emoticons, themes, moods, microblog</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -255,7 +269,17 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="id-ID"/>
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -288,6 +312,7 @@
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -296,10 +321,12 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -359,7 +386,13 @@
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
@@ -481,6 +514,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -541,7 +575,13 @@
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
@@ -634,7 +674,7 @@
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>17</c:v>
@@ -663,19 +703,26 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
+          <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:axId val="72812032"/>
-        <c:axId val="64593920"/>
+        <c:smooth val="0"/>
+        <c:axId val="1260110960"/>
+        <c:axId val="1260108240"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="72812032"/>
+        <c:axId val="1260110960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -703,6 +750,8 @@
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -735,17 +784,19 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="64593920"/>
+        <c:crossAx val="1260108240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="64593920"/>
+        <c:axId val="1260108240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -773,6 +824,8 @@
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -805,7 +858,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="72812032"/>
+        <c:crossAx val="1260110960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -820,6 +873,7 @@
     <c:legend>
       <c:legendPos val="t"/>
       <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -854,6 +908,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1187,28 +1242,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:D17"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="24.85546875" customWidth="1"/>
     <col min="3" max="3" width="43.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="15" customHeight="1">
+    <row r="1" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1" s="9" t="s">
         <v>19</v>
       </c>
@@ -1221,7 +1276,7 @@
       <c r="L1" s="9"/>
       <c r="M1" s="9"/>
     </row>
-    <row r="2" spans="2:18" ht="15" customHeight="1">
+    <row r="2" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
@@ -1232,7 +1287,7 @@
       <c r="L2" s="9"/>
       <c r="M2" s="9"/>
     </row>
-    <row r="4" spans="2:18">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
@@ -1285,7 +1340,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="2:18">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>20</v>
       </c>
@@ -1338,7 +1393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:18">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>20</v>
       </c>
@@ -1391,7 +1446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:18">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>20</v>
       </c>
@@ -1444,14 +1499,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:18">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="4"/>
+      <c r="D8" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="E8" s="2">
         <v>3</v>
       </c>
@@ -1495,14 +1552,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:18">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="4"/>
+      <c r="D9" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="E9" s="2">
         <v>5</v>
       </c>
@@ -1519,7 +1578,7 @@
         <v>5</v>
       </c>
       <c r="J9" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K9" s="2">
         <v>0</v>
@@ -1546,14 +1605,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:18">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="4"/>
+      <c r="D10" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="E10" s="2">
         <v>3</v>
       </c>
@@ -1597,7 +1658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:18">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>20</v>
       </c>
@@ -1648,7 +1709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:18">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>20</v>
       </c>
@@ -1699,7 +1760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:18">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>20</v>
       </c>
@@ -1750,7 +1811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:18">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>20</v>
       </c>
@@ -1801,7 +1862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:18">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>20</v>
       </c>
@@ -1852,7 +1913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:18">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>20</v>
       </c>
@@ -1903,7 +1964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:18">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
         <v>4</v>
       </c>
@@ -1966,7 +2027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:18">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
         <v>5</v>
       </c>
@@ -1994,7 +2055,7 @@
       </c>
       <c r="J18" s="2">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K18" s="2">
         <f t="shared" si="1"/>
@@ -2045,12 +2106,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Burndown Chart ICQ.xlsx
+++ b/Burndown Chart ICQ.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\aaa\tkppl\ICQ\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="34">
   <si>
     <t>Project</t>
   </si>
@@ -118,6 +118,15 @@
   </si>
   <si>
     <t>informasi chat history, emoticons, themes, moods, microblog</t>
+  </si>
+  <si>
+    <t>informasi cara install ICQ di Windows,Linux,mobile(Iphone)</t>
+  </si>
+  <si>
+    <t>informasi cara install ICQ di Mac,Mobile(Symbian),Mobile(Blackberry),Mobile(Windows Phone 7)</t>
+  </si>
+  <si>
+    <t>informasi cara install ICQ di Mobile(Android),Mobile(Java),Mobile(Windows Mobile),Mobile(Bada)</t>
   </si>
 </sst>
 </file>
@@ -470,43 +479,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>39</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>36</c:v>
+                  <c:v>38.769230769230766</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33</c:v>
+                  <c:v>35.538461538461533</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30</c:v>
+                  <c:v>32.307692307692299</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27</c:v>
+                  <c:v>29.07692307692307</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24</c:v>
+                  <c:v>25.84615384615384</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21</c:v>
+                  <c:v>22.61538461538461</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18</c:v>
+                  <c:v>19.38461538461538</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15</c:v>
+                  <c:v>16.15384615384615</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12</c:v>
+                  <c:v>12.92307692307692</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9</c:v>
+                  <c:v>9.6923076923076898</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6</c:v>
+                  <c:v>6.461538461538459</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3</c:v>
+                  <c:v>3.2307692307692282</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
@@ -659,37 +668,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>39</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>35</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>31</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>22</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>17</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>11</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>5</c:v>
@@ -714,11 +723,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1260110960"/>
-        <c:axId val="1260108240"/>
+        <c:axId val="259922240"/>
+        <c:axId val="259922800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1260110960"/>
+        <c:axId val="259922240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -784,7 +793,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1260108240"/>
+        <c:crossAx val="259922800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -792,7 +801,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1260108240"/>
+        <c:axId val="259922800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -858,7 +867,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1260110960"/>
+        <c:crossAx val="259922240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1253,7 +1262,7 @@
   <dimension ref="B1:R18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1665,7 +1674,9 @@
       <c r="C11" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="4"/>
+      <c r="D11" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="E11" s="2">
         <v>4</v>
       </c>
@@ -1716,36 +1727,38 @@
       <c r="C12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="4"/>
+      <c r="D12" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="E12" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F12" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G12" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H12" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I12" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J12" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K12" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L12" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M12" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12" s="2">
         <v>0</v>
@@ -1767,39 +1780,41 @@
       <c r="C13" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="4"/>
+      <c r="D13" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="E13" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F13" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G13" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H13" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I13" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J13" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K13" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L13" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M13" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N13" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" s="2">
         <v>0</v>
@@ -1972,55 +1987,55 @@
       <c r="D17" s="8"/>
       <c r="E17" s="2">
         <f>SUM(E5:E16)</f>
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F17" s="2">
         <f>E17-$E$17/13</f>
-        <v>36</v>
+        <v>38.769230769230766</v>
       </c>
       <c r="G17" s="2">
         <f>F17-$E$17/13</f>
-        <v>33</v>
+        <v>35.538461538461533</v>
       </c>
       <c r="H17" s="2">
         <f t="shared" ref="H17:R17" si="0">G17-$E$17/13</f>
-        <v>30</v>
+        <v>32.307692307692299</v>
       </c>
       <c r="I17" s="2">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>29.07692307692307</v>
       </c>
       <c r="J17" s="2">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>25.84615384615384</v>
       </c>
       <c r="K17" s="2">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>22.61538461538461</v>
       </c>
       <c r="L17" s="2">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>19.38461538461538</v>
       </c>
       <c r="M17" s="2">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>16.15384615384615</v>
       </c>
       <c r="N17" s="2">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>12.92307692307692</v>
       </c>
       <c r="O17" s="2">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>9.6923076923076898</v>
       </c>
       <c r="P17" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>6.461538461538459</v>
       </c>
       <c r="Q17" s="2">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>3.2307692307692282</v>
       </c>
       <c r="R17" s="2">
         <f t="shared" si="0"/>
@@ -2035,47 +2050,47 @@
       <c r="D18" s="8"/>
       <c r="E18" s="2">
         <f>SUM(E2:E16)</f>
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F18" s="2">
         <f>SUM(F5:F16)</f>
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G18" s="2">
         <f t="shared" ref="G18:R18" si="1">SUM(G5:G16)</f>
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H18" s="2">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I18" s="2">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J18" s="2">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K18" s="2">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L18" s="2">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M18" s="2">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N18" s="2">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O18" s="2">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P18" s="2">
         <f t="shared" si="1"/>

--- a/Burndown Chart ICQ.xlsx
+++ b/Burndown Chart ICQ.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\aaa\tkppl\ICQ\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9045"/>
   </bookViews>
@@ -15,9 +10,9 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
   <si>
     <t>Project</t>
   </si>
@@ -127,13 +122,22 @@
   </si>
   <si>
     <t>informasi cara install ICQ di Mobile(Android),Mobile(Java),Mobile(Windows Mobile),Mobile(Bada)</t>
+  </si>
+  <si>
+    <t>Informasi cara register, login dan Addlist</t>
+  </si>
+  <si>
+    <t>Informasi cara kerja audio &amp; video call</t>
+  </si>
+  <si>
+    <t>Informasi cara sms, Instant message</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -278,17 +282,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:lang val="id-ID"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -321,7 +315,6 @@
         </c:rich>
       </c:tx>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -330,12 +323,10 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -395,13 +386,7 @@
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
@@ -523,7 +508,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -584,13 +568,7 @@
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
@@ -712,26 +690,19 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
-          <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="259922240"/>
-        <c:axId val="259922800"/>
+        <c:marker val="1"/>
+        <c:axId val="61979648"/>
+        <c:axId val="60490496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="259922240"/>
+        <c:axId val="61979648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -759,8 +730,6 @@
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -793,19 +762,17 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="259922800"/>
+        <c:crossAx val="60490496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="259922800"/>
+        <c:axId val="60490496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -833,8 +800,6 @@
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -867,7 +832,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="259922240"/>
+        <c:crossAx val="61979648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -882,7 +847,6 @@
     <c:legend>
       <c:legendPos val="t"/>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -917,7 +881,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -955,7 +918,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1251,28 +1214,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:R18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="24.85546875" customWidth="1"/>
     <col min="3" max="3" width="43.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:18" ht="15" customHeight="1">
       <c r="E1" s="9" t="s">
         <v>19</v>
       </c>
@@ -1285,7 +1248,7 @@
       <c r="L1" s="9"/>
       <c r="M1" s="9"/>
     </row>
-    <row r="2" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:18" ht="15" customHeight="1">
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
@@ -1296,7 +1259,7 @@
       <c r="L2" s="9"/>
       <c r="M2" s="9"/>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:18">
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
@@ -1349,7 +1312,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:18">
       <c r="B5" s="1" t="s">
         <v>20</v>
       </c>
@@ -1402,7 +1365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:18">
       <c r="B6" s="1" t="s">
         <v>20</v>
       </c>
@@ -1455,7 +1418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:18">
       <c r="B7" s="1" t="s">
         <v>20</v>
       </c>
@@ -1508,7 +1471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:18">
       <c r="B8" s="1" t="s">
         <v>20</v>
       </c>
@@ -1561,7 +1524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:18">
       <c r="B9" s="1" t="s">
         <v>20</v>
       </c>
@@ -1614,7 +1577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:18">
       <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
@@ -1667,7 +1630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:18">
       <c r="B11" s="1" t="s">
         <v>20</v>
       </c>
@@ -1720,7 +1683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:18">
       <c r="B12" s="1" t="s">
         <v>20</v>
       </c>
@@ -1773,7 +1736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:18">
       <c r="B13" s="1" t="s">
         <v>20</v>
       </c>
@@ -1826,14 +1789,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:18">
       <c r="B14" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="4"/>
+      <c r="D14" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="E14" s="2">
         <v>3</v>
       </c>
@@ -1877,14 +1842,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:18">
       <c r="B15" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="4"/>
+      <c r="D15" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="E15" s="2">
         <v>3</v>
       </c>
@@ -1928,14 +1895,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:18">
       <c r="B16" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="4"/>
+      <c r="D16" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="E16" s="2">
         <v>2</v>
       </c>
@@ -1979,7 +1948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:18">
       <c r="B17" s="8" t="s">
         <v>4</v>
       </c>
@@ -2042,7 +2011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:18">
       <c r="B18" s="8" t="s">
         <v>5</v>
       </c>
@@ -2121,12 +2090,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Burndown Chart ICQ.xlsx
+++ b/Burndown Chart ICQ.xlsx
@@ -464,43 +464,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>42</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>38.769230769230766</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>35.538461538461533</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32.307692307692299</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>29.07692307692307</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25.84615384615384</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22.61538461538461</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19.38461538461538</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16.15384615384615</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.92307692307692</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.6923076923076898</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.461538461538459</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.2307692307692282</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
@@ -646,34 +646,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>42</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>38</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>34</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>31</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>28</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>20</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>9</c:v>
@@ -695,11 +695,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="61979648"/>
-        <c:axId val="60490496"/>
+        <c:axId val="35151872"/>
+        <c:axId val="35153408"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="61979648"/>
+        <c:axId val="35151872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -762,14 +762,14 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60490496"/>
+        <c:crossAx val="35153408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="60490496"/>
+        <c:axId val="35153408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -832,7 +832,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61979648"/>
+        <c:crossAx val="35151872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -918,7 +918,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1224,15 +1224,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:R18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="24.85546875" customWidth="1"/>
     <col min="3" max="3" width="43.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="90.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:18" ht="15" customHeight="1">
@@ -1376,7 +1376,7 @@
         <v>26</v>
       </c>
       <c r="E6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F6" s="2">
         <v>4</v>
@@ -1535,19 +1535,19 @@
         <v>29</v>
       </c>
       <c r="E9" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F9" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G9" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H9" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I9" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J9" s="2">
         <v>2</v>
@@ -1662,7 +1662,7 @@
         <v>4</v>
       </c>
       <c r="L11" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M11" s="2">
         <v>0</v>
@@ -1747,34 +1747,34 @@
         <v>33</v>
       </c>
       <c r="E13" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F13" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G13" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H13" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I13" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J13" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K13" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L13" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M13" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N13" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O13" s="2">
         <v>1</v>
@@ -1956,55 +1956,55 @@
       <c r="D17" s="8"/>
       <c r="E17" s="2">
         <f>SUM(E5:E16)</f>
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F17" s="2">
         <f>E17-$E$17/13</f>
-        <v>38.769230769230766</v>
+        <v>36</v>
       </c>
       <c r="G17" s="2">
         <f>F17-$E$17/13</f>
-        <v>35.538461538461533</v>
+        <v>33</v>
       </c>
       <c r="H17" s="2">
         <f t="shared" ref="H17:R17" si="0">G17-$E$17/13</f>
-        <v>32.307692307692299</v>
+        <v>30</v>
       </c>
       <c r="I17" s="2">
         <f t="shared" si="0"/>
-        <v>29.07692307692307</v>
+        <v>27</v>
       </c>
       <c r="J17" s="2">
         <f t="shared" si="0"/>
-        <v>25.84615384615384</v>
+        <v>24</v>
       </c>
       <c r="K17" s="2">
         <f t="shared" si="0"/>
-        <v>22.61538461538461</v>
+        <v>21</v>
       </c>
       <c r="L17" s="2">
         <f t="shared" si="0"/>
-        <v>19.38461538461538</v>
+        <v>18</v>
       </c>
       <c r="M17" s="2">
         <f t="shared" si="0"/>
-        <v>16.15384615384615</v>
+        <v>15</v>
       </c>
       <c r="N17" s="2">
         <f t="shared" si="0"/>
-        <v>12.92307692307692</v>
+        <v>12</v>
       </c>
       <c r="O17" s="2">
         <f t="shared" si="0"/>
-        <v>9.6923076923076898</v>
+        <v>9</v>
       </c>
       <c r="P17" s="2">
         <f t="shared" si="0"/>
-        <v>6.461538461538459</v>
+        <v>6</v>
       </c>
       <c r="Q17" s="2">
         <f t="shared" si="0"/>
-        <v>3.2307692307692282</v>
+        <v>3</v>
       </c>
       <c r="R17" s="2">
         <f t="shared" si="0"/>
@@ -2019,43 +2019,43 @@
       <c r="D18" s="8"/>
       <c r="E18" s="2">
         <f>SUM(E2:E16)</f>
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F18" s="2">
         <f>SUM(F5:F16)</f>
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G18" s="2">
         <f t="shared" ref="G18:R18" si="1">SUM(G5:G16)</f>
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H18" s="2">
         <f t="shared" si="1"/>
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I18" s="2">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J18" s="2">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K18" s="2">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L18" s="2">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M18" s="2">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N18" s="2">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O18" s="2">
         <f t="shared" si="1"/>
